--- a/TeduCoreApp/wwwroot/templates/ProductImportTemplate.xlsx
+++ b/TeduCoreApp/wwwroot/templates/ProductImportTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Description</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Content</t>
-  </si>
-  <si>
-    <t>Seo Description</t>
   </si>
   <si>
     <t>Status</t>
@@ -109,16 +106,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0">
-  <autoFilter ref="A1:J23"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I23" totalsRowShown="0">
+  <autoFilter ref="A1:I23"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="4" name="Original Price"/>
     <tableColumn id="5" name="Price"/>
     <tableColumn id="6" name="Promotion Price"/>
     <tableColumn id="8" name="Content"/>
-    <tableColumn id="10" name="Seo Description"/>
     <tableColumn id="11" name="Status"/>
     <tableColumn id="12" name="Home Flag"/>
     <tableColumn id="13" name="Hot Flag"/>
@@ -424,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -438,13 +434,12 @@
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -467,13 +462,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
